--- a/Docs/mem-layout.xlsx
+++ b/Docs/mem-layout.xlsx
@@ -1768,7 +1768,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1240155" y="4694555"/>
+          <a:off x="1240155" y="4685030"/>
           <a:ext cx="779145" cy="267335"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1816,8 +1816,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2224405" y="4614545"/>
-          <a:ext cx="1073150" cy="1625600"/>
+          <a:off x="2224405" y="4605020"/>
+          <a:ext cx="1073150" cy="1616075"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1864,7 +1864,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3595370" y="6200140"/>
+          <a:off x="3595370" y="6181090"/>
           <a:ext cx="1093470" cy="1589405"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1912,7 +1912,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4966335" y="7722870"/>
+          <a:off x="4966335" y="7703820"/>
           <a:ext cx="1140460" cy="85725"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2578,7 +2578,7 @@
   <sheetPr/>
   <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A22" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
@@ -2738,8 +2738,8 @@
   <sheetPr/>
   <dimension ref="B9:J45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2864,7 +2864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="3:8">
+    <row r="23" spans="3:8">
       <c r="C23" s="2">
         <v>511</v>
       </c>
@@ -2896,7 +2896,6 @@
       <c r="F25" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="2"/>
       <c r="H25" s="1" t="s">
         <v>23</v>
       </c>
@@ -2960,7 +2959,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="5:6">
+    <row r="32" spans="5:6">
       <c r="E32" s="2">
         <v>511</v>
       </c>
